--- a/8/4/Por sector acreedor 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Por sector acreedor 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="233">
   <si>
     <t>Serie</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U222"/>
+  <dimension ref="A1:U223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15183,25 +15186,25 @@
         <v>227</v>
       </c>
       <c r="B218">
-        <v>212018</v>
+        <v>210862</v>
       </c>
       <c r="C218">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="D218">
         <v>209</v>
       </c>
       <c r="E218">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F218">
-        <v>5411</v>
+        <v>5410</v>
       </c>
       <c r="G218">
         <v>2</v>
       </c>
       <c r="H218">
-        <v>5410</v>
+        <v>5408</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -15210,31 +15213,31 @@
         <v>0</v>
       </c>
       <c r="K218">
-        <v>32758</v>
+        <v>32534</v>
       </c>
       <c r="L218">
-        <v>7587</v>
+        <v>7464</v>
       </c>
       <c r="M218">
-        <v>25171</v>
+        <v>25070</v>
       </c>
       <c r="N218">
-        <v>71872</v>
+        <v>70941</v>
       </c>
       <c r="O218">
-        <v>10754</v>
+        <v>11051</v>
       </c>
       <c r="P218">
-        <v>61118</v>
+        <v>59889</v>
       </c>
       <c r="Q218">
-        <v>97909</v>
+        <v>97911</v>
       </c>
       <c r="R218">
         <v>1445</v>
       </c>
       <c r="S218">
-        <v>96464</v>
+        <v>96465</v>
       </c>
       <c r="T218">
         <v>1177</v>
@@ -15248,25 +15251,25 @@
         <v>228</v>
       </c>
       <c r="B219">
-        <v>210968</v>
+        <v>209836</v>
       </c>
       <c r="C219">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D219">
         <v>176</v>
       </c>
       <c r="E219">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="F219">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="G219">
         <v>2</v>
       </c>
       <c r="H219">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -15275,31 +15278,31 @@
         <v>0</v>
       </c>
       <c r="K219">
-        <v>32409</v>
+        <v>32171</v>
       </c>
       <c r="L219">
-        <v>7400</v>
+        <v>7390</v>
       </c>
       <c r="M219">
-        <v>25009</v>
+        <v>24781</v>
       </c>
       <c r="N219">
-        <v>72722</v>
+        <v>71830</v>
       </c>
       <c r="O219">
-        <v>11156</v>
+        <v>11511</v>
       </c>
       <c r="P219">
-        <v>61567</v>
+        <v>60319</v>
       </c>
       <c r="Q219">
-        <v>96523</v>
+        <v>96525</v>
       </c>
       <c r="R219">
         <v>2090</v>
       </c>
       <c r="S219">
-        <v>94434</v>
+        <v>94435</v>
       </c>
       <c r="T219">
         <v>1176</v>
@@ -15313,25 +15316,25 @@
         <v>229</v>
       </c>
       <c r="B220">
-        <v>210956</v>
+        <v>209510</v>
       </c>
       <c r="C220">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D220">
         <v>174</v>
       </c>
       <c r="E220">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="F220">
-        <v>5285</v>
+        <v>5255</v>
       </c>
       <c r="G220">
         <v>2</v>
       </c>
       <c r="H220">
-        <v>5283</v>
+        <v>5253</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -15340,31 +15343,31 @@
         <v>0</v>
       </c>
       <c r="K220">
-        <v>33759</v>
+        <v>33354</v>
       </c>
       <c r="L220">
-        <v>8514</v>
+        <v>8504</v>
       </c>
       <c r="M220">
-        <v>25245</v>
+        <v>24850</v>
       </c>
       <c r="N220">
-        <v>73604</v>
+        <v>72606</v>
       </c>
       <c r="O220">
-        <v>12114</v>
+        <v>12382</v>
       </c>
       <c r="P220">
-        <v>61490</v>
+        <v>60224</v>
       </c>
       <c r="Q220">
-        <v>94321</v>
+        <v>94308</v>
       </c>
       <c r="R220">
         <v>2060</v>
       </c>
       <c r="S220">
-        <v>92261</v>
+        <v>92249</v>
       </c>
       <c r="T220">
         <v>1158</v>
@@ -15378,7 +15381,7 @@
         <v>230</v>
       </c>
       <c r="B221">
-        <v>214849</v>
+        <v>213397</v>
       </c>
       <c r="C221">
         <v>2729</v>
@@ -15390,13 +15393,13 @@
         <v>2629</v>
       </c>
       <c r="F221">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="G221">
         <v>2</v>
       </c>
       <c r="H221">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -15405,31 +15408,31 @@
         <v>0</v>
       </c>
       <c r="K221">
-        <v>33643</v>
+        <v>33299</v>
       </c>
       <c r="L221">
-        <v>8347</v>
+        <v>8473</v>
       </c>
       <c r="M221">
-        <v>25296</v>
+        <v>24826</v>
       </c>
       <c r="N221">
-        <v>74749</v>
+        <v>73639</v>
       </c>
       <c r="O221">
-        <v>12145</v>
+        <v>12335</v>
       </c>
       <c r="P221">
-        <v>62603</v>
+        <v>61305</v>
       </c>
       <c r="Q221">
-        <v>97440</v>
+        <v>97441</v>
       </c>
       <c r="R221">
         <v>1690</v>
       </c>
       <c r="S221">
-        <v>95750</v>
+        <v>95751</v>
       </c>
       <c r="T221">
         <v>1173</v>
@@ -15443,7 +15446,7 @@
         <v>231</v>
       </c>
       <c r="B222">
-        <v>216184</v>
+        <v>214870</v>
       </c>
       <c r="C222">
         <v>2684</v>
@@ -15455,13 +15458,13 @@
         <v>2612</v>
       </c>
       <c r="F222">
-        <v>5076</v>
+        <v>5075</v>
       </c>
       <c r="G222">
         <v>2</v>
       </c>
       <c r="H222">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -15470,37 +15473,102 @@
         <v>0</v>
       </c>
       <c r="K222">
-        <v>34139</v>
+        <v>33814</v>
       </c>
       <c r="L222">
-        <v>9459</v>
+        <v>9456</v>
       </c>
       <c r="M222">
-        <v>24680</v>
+        <v>24357</v>
       </c>
       <c r="N222">
-        <v>74109</v>
+        <v>73114</v>
       </c>
       <c r="O222">
-        <v>12495</v>
+        <v>12489</v>
       </c>
       <c r="P222">
-        <v>61613</v>
+        <v>60626</v>
       </c>
       <c r="Q222">
-        <v>98983</v>
+        <v>98989</v>
       </c>
       <c r="R222">
         <v>1445</v>
       </c>
       <c r="S222">
-        <v>97538</v>
+        <v>97544</v>
       </c>
       <c r="T222">
         <v>1193</v>
       </c>
       <c r="U222">
         <v>1193</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="A223" t="s">
+        <v>232</v>
+      </c>
+      <c r="B223">
+        <v>213283</v>
+      </c>
+      <c r="C223">
+        <v>2664</v>
+      </c>
+      <c r="D223">
+        <v>73</v>
+      </c>
+      <c r="E223">
+        <v>2591</v>
+      </c>
+      <c r="F223">
+        <v>4955</v>
+      </c>
+      <c r="G223">
+        <v>2</v>
+      </c>
+      <c r="H223">
+        <v>4954</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>32910</v>
+      </c>
+      <c r="L223">
+        <v>8785</v>
+      </c>
+      <c r="M223">
+        <v>24125</v>
+      </c>
+      <c r="N223">
+        <v>71901</v>
+      </c>
+      <c r="O223">
+        <v>12272</v>
+      </c>
+      <c r="P223">
+        <v>59629</v>
+      </c>
+      <c r="Q223">
+        <v>99687</v>
+      </c>
+      <c r="R223">
+        <v>1186</v>
+      </c>
+      <c r="S223">
+        <v>98501</v>
+      </c>
+      <c r="T223">
+        <v>1165</v>
+      </c>
+      <c r="U223">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/Por sector acreedor 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Por sector acreedor 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U223"/>
+  <dimension ref="A1:U224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15571,6 +15574,71 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="224" spans="1:21">
+      <c r="A224" t="s">
+        <v>233</v>
+      </c>
+      <c r="B224">
+        <v>224053</v>
+      </c>
+      <c r="C224">
+        <v>2786</v>
+      </c>
+      <c r="D224">
+        <v>173</v>
+      </c>
+      <c r="E224">
+        <v>2612</v>
+      </c>
+      <c r="F224">
+        <v>5060</v>
+      </c>
+      <c r="G224">
+        <v>2</v>
+      </c>
+      <c r="H224">
+        <v>5058</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>33656</v>
+      </c>
+      <c r="L224">
+        <v>9317</v>
+      </c>
+      <c r="M224">
+        <v>24339</v>
+      </c>
+      <c r="N224">
+        <v>72641</v>
+      </c>
+      <c r="O224">
+        <v>13820</v>
+      </c>
+      <c r="P224">
+        <v>58821</v>
+      </c>
+      <c r="Q224">
+        <v>108743</v>
+      </c>
+      <c r="R224">
+        <v>1248</v>
+      </c>
+      <c r="S224">
+        <v>107494</v>
+      </c>
+      <c r="T224">
+        <v>1167</v>
+      </c>
+      <c r="U224">
+        <v>1167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/Por sector acreedor 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Por sector acreedor 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="235">
   <si>
     <t>Serie</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U224"/>
+  <dimension ref="A1:U225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15639,6 +15642,71 @@
         <v>1167</v>
       </c>
     </row>
+    <row r="225" spans="1:21">
+      <c r="A225" t="s">
+        <v>234</v>
+      </c>
+      <c r="B225">
+        <v>229192</v>
+      </c>
+      <c r="C225">
+        <v>2793</v>
+      </c>
+      <c r="D225">
+        <v>194</v>
+      </c>
+      <c r="E225">
+        <v>2599</v>
+      </c>
+      <c r="F225">
+        <v>5013</v>
+      </c>
+      <c r="G225">
+        <v>2</v>
+      </c>
+      <c r="H225">
+        <v>5011</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>34597</v>
+      </c>
+      <c r="L225">
+        <v>9540</v>
+      </c>
+      <c r="M225">
+        <v>25057</v>
+      </c>
+      <c r="N225">
+        <v>73396</v>
+      </c>
+      <c r="O225">
+        <v>14301</v>
+      </c>
+      <c r="P225">
+        <v>59095</v>
+      </c>
+      <c r="Q225">
+        <v>109849</v>
+      </c>
+      <c r="R225">
+        <v>1184</v>
+      </c>
+      <c r="S225">
+        <v>108665</v>
+      </c>
+      <c r="T225">
+        <v>3545</v>
+      </c>
+      <c r="U225">
+        <v>3545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/Por sector acreedor 2003 a 2021 - Mensual.xlsx
+++ b/8/4/Por sector acreedor 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="236">
   <si>
     <t>Serie</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U225"/>
+  <dimension ref="A1:U226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15707,6 +15710,71 @@
         <v>3545</v>
       </c>
     </row>
+    <row r="226" spans="1:21">
+      <c r="A226" t="s">
+        <v>235</v>
+      </c>
+      <c r="B226">
+        <v>233155</v>
+      </c>
+      <c r="C226">
+        <v>2837</v>
+      </c>
+      <c r="D226">
+        <v>244</v>
+      </c>
+      <c r="E226">
+        <v>2593</v>
+      </c>
+      <c r="F226">
+        <v>5012</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>5011</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>36094</v>
+      </c>
+      <c r="L226">
+        <v>9803</v>
+      </c>
+      <c r="M226">
+        <v>26291</v>
+      </c>
+      <c r="N226">
+        <v>73426</v>
+      </c>
+      <c r="O226">
+        <v>13927</v>
+      </c>
+      <c r="P226">
+        <v>59500</v>
+      </c>
+      <c r="Q226">
+        <v>112279</v>
+      </c>
+      <c r="R226">
+        <v>1428</v>
+      </c>
+      <c r="S226">
+        <v>110851</v>
+      </c>
+      <c r="T226">
+        <v>3506</v>
+      </c>
+      <c r="U226">
+        <v>3506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
